--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.184834276963143</v>
+        <v>0.037283</v>
       </c>
       <c r="H2">
-        <v>0.184834276963143</v>
+        <v>0.111849</v>
       </c>
       <c r="I2">
-        <v>0.2889432784205919</v>
+        <v>0.04755038908979835</v>
       </c>
       <c r="J2">
-        <v>0.2889432784205919</v>
+        <v>0.05103401263701968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.66646136491647</v>
+        <v>0.3148576666666666</v>
       </c>
       <c r="N2">
-        <v>1.66646136491647</v>
+        <v>0.944573</v>
       </c>
       <c r="O2">
-        <v>0.8623704508203228</v>
+        <v>0.1081871716767372</v>
       </c>
       <c r="P2">
-        <v>0.8623704508203228</v>
+        <v>0.1101334406327525</v>
       </c>
       <c r="Q2">
-        <v>0.3080191814713481</v>
+        <v>0.01173883838633333</v>
       </c>
       <c r="R2">
-        <v>0.3080191814713481</v>
+        <v>0.105649545477</v>
       </c>
       <c r="S2">
-        <v>0.2491761452730679</v>
+        <v>0.005144342107753666</v>
       </c>
       <c r="T2">
-        <v>0.2491761452730679</v>
+        <v>0.00562055140101035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.184834276963143</v>
+        <v>0.037283</v>
       </c>
       <c r="H3">
-        <v>0.184834276963143</v>
+        <v>0.111849</v>
       </c>
       <c r="I3">
-        <v>0.2889432784205919</v>
+        <v>0.04755038908979835</v>
       </c>
       <c r="J3">
-        <v>0.2889432784205919</v>
+        <v>0.05103401263701968</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.265958006980216</v>
+        <v>2.103486</v>
       </c>
       <c r="N3">
-        <v>0.265958006980216</v>
+        <v>6.310458</v>
       </c>
       <c r="O3">
-        <v>0.1376295491796773</v>
+        <v>0.7227716682615739</v>
       </c>
       <c r="P3">
-        <v>0.1376295491796773</v>
+        <v>0.7357742085667051</v>
       </c>
       <c r="Q3">
-        <v>0.04915815592274676</v>
+        <v>0.078424268538</v>
       </c>
       <c r="R3">
-        <v>0.04915815592274676</v>
+        <v>0.705818416842</v>
       </c>
       <c r="S3">
-        <v>0.03976713314752403</v>
+        <v>0.0343680740489205</v>
       </c>
       <c r="T3">
-        <v>0.03976713314752403</v>
+        <v>0.03754951025798638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.157493883393776</v>
+        <v>0.037283</v>
       </c>
       <c r="H4">
-        <v>0.157493883393776</v>
+        <v>0.111849</v>
       </c>
       <c r="I4">
-        <v>0.2462032462088315</v>
+        <v>0.04755038908979835</v>
       </c>
       <c r="J4">
-        <v>0.2462032462088315</v>
+        <v>0.05103401263701968</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.66646136491647</v>
+        <v>0.03938133333333333</v>
       </c>
       <c r="N4">
-        <v>1.66646136491647</v>
+        <v>0.118144</v>
       </c>
       <c r="O4">
-        <v>0.8623704508203228</v>
+        <v>0.01353168596876731</v>
       </c>
       <c r="P4">
-        <v>0.8623704508203228</v>
+        <v>0.01377511871513998</v>
       </c>
       <c r="Q4">
-        <v>0.2624574718863874</v>
+        <v>0.001468254250666667</v>
       </c>
       <c r="R4">
-        <v>0.2624574718863874</v>
+        <v>0.013214288256</v>
       </c>
       <c r="S4">
-        <v>0.212318404426537</v>
+        <v>0.0006434369328558502</v>
       </c>
       <c r="T4">
-        <v>0.212318404426537</v>
+        <v>0.0007029995825849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.157493883393776</v>
+        <v>0.037283</v>
       </c>
       <c r="H5">
-        <v>0.157493883393776</v>
+        <v>0.111849</v>
       </c>
       <c r="I5">
-        <v>0.2462032462088315</v>
+        <v>0.04755038908979835</v>
       </c>
       <c r="J5">
-        <v>0.2462032462088315</v>
+        <v>0.05103401263701968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.265958006980216</v>
+        <v>0.2982880000000001</v>
       </c>
       <c r="N5">
-        <v>0.265958006980216</v>
+        <v>0.8948640000000001</v>
       </c>
       <c r="O5">
-        <v>0.1376295491796773</v>
+        <v>0.1024937248845053</v>
       </c>
       <c r="P5">
-        <v>0.1376295491796773</v>
+        <v>0.1043375696938061</v>
       </c>
       <c r="Q5">
-        <v>0.04188675933898321</v>
+        <v>0.011121071504</v>
       </c>
       <c r="R5">
-        <v>0.04188675933898321</v>
+        <v>0.100089643536</v>
       </c>
       <c r="S5">
-        <v>0.03388484178229457</v>
+        <v>0.004873616497520972</v>
       </c>
       <c r="T5">
-        <v>0.03388484178229457</v>
+        <v>0.00532476485026962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.137883904889429</v>
+        <v>0.037283</v>
       </c>
       <c r="H6">
-        <v>0.137883904889429</v>
+        <v>0.111849</v>
       </c>
       <c r="I6">
-        <v>0.21554783114243</v>
+        <v>0.04755038908979835</v>
       </c>
       <c r="J6">
-        <v>0.21554783114243</v>
+        <v>0.05103401263701968</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>1.66646136491647</v>
+        <v>0.154292</v>
       </c>
       <c r="N6">
-        <v>1.66646136491647</v>
+        <v>0.308584</v>
       </c>
       <c r="O6">
-        <v>0.8623704508203228</v>
+        <v>0.05301574920841631</v>
       </c>
       <c r="P6">
-        <v>0.8623704508203228</v>
+        <v>0.03597966239159632</v>
       </c>
       <c r="Q6">
-        <v>0.2297782003420506</v>
+        <v>0.005752468636000001</v>
       </c>
       <c r="R6">
-        <v>0.2297782003420506</v>
+        <v>0.034514811816</v>
       </c>
       <c r="S6">
-        <v>0.1858820803156402</v>
+        <v>0.002520919502747365</v>
       </c>
       <c r="T6">
-        <v>0.1858820803156402</v>
+        <v>0.001836186545168428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.137883904889429</v>
+        <v>0.2137036666666667</v>
       </c>
       <c r="H7">
-        <v>0.137883904889429</v>
+        <v>0.641111</v>
       </c>
       <c r="I7">
-        <v>0.21554783114243</v>
+        <v>0.2725556553903004</v>
       </c>
       <c r="J7">
-        <v>0.21554783114243</v>
+        <v>0.2925235529663414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.265958006980216</v>
+        <v>0.3148576666666666</v>
       </c>
       <c r="N7">
-        <v>0.265958006980216</v>
+        <v>0.944573</v>
       </c>
       <c r="O7">
-        <v>0.1376295491796773</v>
+        <v>0.1081871716767372</v>
       </c>
       <c r="P7">
-        <v>0.1376295491796773</v>
+        <v>0.1101334406327525</v>
       </c>
       <c r="Q7">
-        <v>0.0366713285390422</v>
+        <v>0.06728623784477777</v>
       </c>
       <c r="R7">
-        <v>0.0366713285390422</v>
+        <v>0.605576140603</v>
       </c>
       <c r="S7">
-        <v>0.02966575082678985</v>
+        <v>0.02948702548117605</v>
       </c>
       <c r="T7">
-        <v>0.02966575082678985</v>
+        <v>0.03221662535430041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.159478458006089</v>
+        <v>0.2137036666666667</v>
       </c>
       <c r="H8">
-        <v>0.159478458006089</v>
+        <v>0.641111</v>
       </c>
       <c r="I8">
-        <v>0.2493056442281466</v>
+        <v>0.2725556553903004</v>
       </c>
       <c r="J8">
-        <v>0.2493056442281466</v>
+        <v>0.2925235529663414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.66646136491647</v>
+        <v>2.103486</v>
       </c>
       <c r="N8">
-        <v>1.66646136491647</v>
+        <v>6.310458</v>
       </c>
       <c r="O8">
-        <v>0.8623704508203228</v>
+        <v>0.7227716682615739</v>
       </c>
       <c r="P8">
-        <v>0.8623704508203228</v>
+        <v>0.7357742085667051</v>
       </c>
       <c r="Q8">
-        <v>0.265764688803601</v>
+        <v>0.4495226709819999</v>
       </c>
       <c r="R8">
-        <v>0.265764688803601</v>
+        <v>4.045704038838</v>
       </c>
       <c r="S8">
-        <v>0.2149938208050778</v>
+        <v>0.196995505740574</v>
       </c>
       <c r="T8">
-        <v>0.2149938208050778</v>
+        <v>0.2152312856709305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.159478458006089</v>
+        <v>0.2137036666666667</v>
       </c>
       <c r="H9">
-        <v>0.159478458006089</v>
+        <v>0.641111</v>
       </c>
       <c r="I9">
-        <v>0.2493056442281466</v>
+        <v>0.2725556553903004</v>
       </c>
       <c r="J9">
-        <v>0.2493056442281466</v>
+        <v>0.2925235529663414</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.265958006980216</v>
+        <v>0.03938133333333333</v>
       </c>
       <c r="N9">
-        <v>0.265958006980216</v>
+        <v>0.118144</v>
       </c>
       <c r="O9">
-        <v>0.1376295491796773</v>
+        <v>0.01353168596876731</v>
       </c>
       <c r="P9">
-        <v>0.1376295491796773</v>
+        <v>0.01377511871513998</v>
       </c>
       <c r="Q9">
-        <v>0.04241457284757751</v>
+        <v>0.008415935331555555</v>
       </c>
       <c r="R9">
-        <v>0.04241457284757751</v>
+        <v>0.075743417984</v>
       </c>
       <c r="S9">
-        <v>0.03431182342306883</v>
+        <v>0.003688137537753104</v>
       </c>
       <c r="T9">
-        <v>0.03431182342306883</v>
+        <v>0.004029546669085891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2137036666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.641111</v>
+      </c>
+      <c r="I10">
+        <v>0.2725556553903004</v>
+      </c>
+      <c r="J10">
+        <v>0.2925235529663414</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2982880000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.8948640000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1024937248845053</v>
+      </c>
+      <c r="P10">
+        <v>0.1043375696938061</v>
+      </c>
+      <c r="Q10">
+        <v>0.06374523932266668</v>
+      </c>
+      <c r="R10">
+        <v>0.5737071539040001</v>
+      </c>
+      <c r="S10">
+        <v>0.02793524435928947</v>
+      </c>
+      <c r="T10">
+        <v>0.03052119659470542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2137036666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.641111</v>
+      </c>
+      <c r="I11">
+        <v>0.2725556553903004</v>
+      </c>
+      <c r="J11">
+        <v>0.2925235529663414</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.154292</v>
+      </c>
+      <c r="N11">
+        <v>0.308584</v>
+      </c>
+      <c r="O11">
+        <v>0.05301574920841631</v>
+      </c>
+      <c r="P11">
+        <v>0.03597966239159632</v>
+      </c>
+      <c r="Q11">
+        <v>0.03297276613733333</v>
+      </c>
+      <c r="R11">
+        <v>0.197836596824</v>
+      </c>
+      <c r="S11">
+        <v>0.01444974227150771</v>
+      </c>
+      <c r="T11">
+        <v>0.01052489867731921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1871966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.56159</v>
+      </c>
+      <c r="I12">
+        <v>0.2387488757962955</v>
+      </c>
+      <c r="J12">
+        <v>0.2562400303697296</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.3148576666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.944573</v>
+      </c>
+      <c r="O12">
+        <v>0.1081871716767372</v>
+      </c>
+      <c r="P12">
+        <v>0.1101334406327525</v>
+      </c>
+      <c r="Q12">
+        <v>0.05894030567444444</v>
+      </c>
+      <c r="R12">
+        <v>0.5304627510700001</v>
+      </c>
+      <c r="S12">
+        <v>0.02582956561340183</v>
+      </c>
+      <c r="T12">
+        <v>0.02822059617245932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1871966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.56159</v>
+      </c>
+      <c r="I13">
+        <v>0.2387488757962955</v>
+      </c>
+      <c r="J13">
+        <v>0.2562400303697296</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.103486</v>
+      </c>
+      <c r="N13">
+        <v>6.310458</v>
+      </c>
+      <c r="O13">
+        <v>0.7227716682615739</v>
+      </c>
+      <c r="P13">
+        <v>0.7357742085667051</v>
+      </c>
+      <c r="Q13">
+        <v>0.39376556758</v>
+      </c>
+      <c r="R13">
+        <v>3.54389010822</v>
+      </c>
+      <c r="S13">
+        <v>0.1725609232548638</v>
+      </c>
+      <c r="T13">
+        <v>0.1885348055483962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1871966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.56159</v>
+      </c>
+      <c r="I14">
+        <v>0.2387488757962955</v>
+      </c>
+      <c r="J14">
+        <v>0.2562400303697296</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03938133333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.118144</v>
+      </c>
+      <c r="O14">
+        <v>0.01353168596876731</v>
+      </c>
+      <c r="P14">
+        <v>0.01377511871513998</v>
+      </c>
+      <c r="Q14">
+        <v>0.007372054328888889</v>
+      </c>
+      <c r="R14">
+        <v>0.06634848896000001</v>
+      </c>
+      <c r="S14">
+        <v>0.0032306748126717</v>
+      </c>
+      <c r="T14">
+        <v>0.003529736837914099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1871966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.56159</v>
+      </c>
+      <c r="I15">
+        <v>0.2387488757962955</v>
+      </c>
+      <c r="J15">
+        <v>0.2562400303697296</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2982880000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.8948640000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.1024937248845053</v>
+      </c>
+      <c r="P15">
+        <v>0.1043375696938061</v>
+      </c>
+      <c r="Q15">
+        <v>0.05583851930666668</v>
+      </c>
+      <c r="R15">
+        <v>0.5025466737600001</v>
+      </c>
+      <c r="S15">
+        <v>0.02447026159235042</v>
+      </c>
+      <c r="T15">
+        <v>0.02673546202704465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1871966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.56159</v>
+      </c>
+      <c r="I16">
+        <v>0.2387488757962955</v>
+      </c>
+      <c r="J16">
+        <v>0.2562400303697296</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.154292</v>
+      </c>
+      <c r="N16">
+        <v>0.308584</v>
+      </c>
+      <c r="O16">
+        <v>0.05301574920841631</v>
+      </c>
+      <c r="P16">
+        <v>0.03597966239159632</v>
+      </c>
+      <c r="Q16">
+        <v>0.02888294809333334</v>
+      </c>
+      <c r="R16">
+        <v>0.17329768856</v>
+      </c>
+      <c r="S16">
+        <v>0.01265745052300774</v>
+      </c>
+      <c r="T16">
+        <v>0.009219429783915259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1853256666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.5559769999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2363626199159475</v>
+      </c>
+      <c r="J17">
+        <v>0.2536789532663885</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.3148576666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.944573</v>
+      </c>
+      <c r="O17">
+        <v>0.1081871716767372</v>
+      </c>
+      <c r="P17">
+        <v>0.1101334406327525</v>
+      </c>
+      <c r="Q17">
+        <v>0.0583512069801111</v>
+      </c>
+      <c r="R17">
+        <v>0.5251608628209999</v>
+      </c>
+      <c r="S17">
+        <v>0.02557140333880999</v>
+      </c>
+      <c r="T17">
+        <v>0.0279385359393426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1853256666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.5559769999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.2363626199159475</v>
+      </c>
+      <c r="J18">
+        <v>0.2536789532663885</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.103486</v>
+      </c>
+      <c r="N18">
+        <v>6.310458</v>
+      </c>
+      <c r="O18">
+        <v>0.7227716682615739</v>
+      </c>
+      <c r="P18">
+        <v>0.7357742085667051</v>
+      </c>
+      <c r="Q18">
+        <v>0.3898299452739999</v>
+      </c>
+      <c r="R18">
+        <v>3.508469507465999</v>
+      </c>
+      <c r="S18">
+        <v>0.1708362051113257</v>
+      </c>
+      <c r="T18">
+        <v>0.1866504310696072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1853256666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.5559769999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.2363626199159475</v>
+      </c>
+      <c r="J19">
+        <v>0.2536789532663885</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03938133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.118144</v>
+      </c>
+      <c r="O19">
+        <v>0.01353168596876731</v>
+      </c>
+      <c r="P19">
+        <v>0.01377511871513998</v>
+      </c>
+      <c r="Q19">
+        <v>0.00729837185422222</v>
+      </c>
+      <c r="R19">
+        <v>0.065685346688</v>
+      </c>
+      <c r="S19">
+        <v>0.003198384747457706</v>
+      </c>
+      <c r="T19">
+        <v>0.003494457696776948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1853256666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.5559769999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2363626199159475</v>
+      </c>
+      <c r="J20">
+        <v>0.2536789532663885</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2982880000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.8948640000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1024937248845053</v>
+      </c>
+      <c r="P20">
+        <v>0.1043375696938061</v>
+      </c>
+      <c r="Q20">
+        <v>0.05528042245866667</v>
+      </c>
+      <c r="R20">
+        <v>0.497523802128</v>
+      </c>
+      <c r="S20">
+        <v>0.024225685338646</v>
+      </c>
+      <c r="T20">
+        <v>0.02646824546628359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1853256666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.5559769999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2363626199159475</v>
+      </c>
+      <c r="J21">
+        <v>0.2536789532663885</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.154292</v>
+      </c>
+      <c r="N21">
+        <v>0.308584</v>
+      </c>
+      <c r="O21">
+        <v>0.05301574920841631</v>
+      </c>
+      <c r="P21">
+        <v>0.03597966239159632</v>
+      </c>
+      <c r="Q21">
+        <v>0.02859426776133333</v>
+      </c>
+      <c r="R21">
+        <v>0.171565606568</v>
+      </c>
+      <c r="S21">
+        <v>0.0125309413797081</v>
+      </c>
+      <c r="T21">
+        <v>0.0091272830943782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1605645</v>
+      </c>
+      <c r="H22">
+        <v>0.321129</v>
+      </c>
+      <c r="I22">
+        <v>0.2047824598076583</v>
+      </c>
+      <c r="J22">
+        <v>0.1465234507605208</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3148576666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.944573</v>
+      </c>
+      <c r="O22">
+        <v>0.1081871716767372</v>
+      </c>
+      <c r="P22">
+        <v>0.1101334406327525</v>
+      </c>
+      <c r="Q22">
+        <v>0.0505549638195</v>
+      </c>
+      <c r="R22">
+        <v>0.303329782917</v>
+      </c>
+      <c r="S22">
+        <v>0.02215483513559567</v>
+      </c>
+      <c r="T22">
+        <v>0.01613713176563986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1605645</v>
+      </c>
+      <c r="H23">
+        <v>0.321129</v>
+      </c>
+      <c r="I23">
+        <v>0.2047824598076583</v>
+      </c>
+      <c r="J23">
+        <v>0.1465234507605208</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.103486</v>
+      </c>
+      <c r="N23">
+        <v>6.310458</v>
+      </c>
+      <c r="O23">
+        <v>0.7227716682615739</v>
+      </c>
+      <c r="P23">
+        <v>0.7357742085667051</v>
+      </c>
+      <c r="Q23">
+        <v>0.337745177847</v>
+      </c>
+      <c r="R23">
+        <v>2.026471067082</v>
+      </c>
+      <c r="S23">
+        <v>0.1480109601058899</v>
+      </c>
+      <c r="T23">
+        <v>0.1078081760197848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1605645</v>
+      </c>
+      <c r="H24">
+        <v>0.321129</v>
+      </c>
+      <c r="I24">
+        <v>0.2047824598076583</v>
+      </c>
+      <c r="J24">
+        <v>0.1465234507605208</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03938133333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.118144</v>
+      </c>
+      <c r="O24">
+        <v>0.01353168596876731</v>
+      </c>
+      <c r="P24">
+        <v>0.01377511871513998</v>
+      </c>
+      <c r="Q24">
+        <v>0.006323244095999999</v>
+      </c>
+      <c r="R24">
+        <v>0.037939464576</v>
+      </c>
+      <c r="S24">
+        <v>0.002771051938028945</v>
+      </c>
+      <c r="T24">
+        <v>0.002018377928778142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1605645</v>
+      </c>
+      <c r="H25">
+        <v>0.321129</v>
+      </c>
+      <c r="I25">
+        <v>0.2047824598076583</v>
+      </c>
+      <c r="J25">
+        <v>0.1465234507605208</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2982880000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.8948640000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1024937248845053</v>
+      </c>
+      <c r="P25">
+        <v>0.1043375696938061</v>
+      </c>
+      <c r="Q25">
+        <v>0.04789446357600001</v>
+      </c>
+      <c r="R25">
+        <v>0.287366781456</v>
+      </c>
+      <c r="S25">
+        <v>0.02098891709669839</v>
+      </c>
+      <c r="T25">
+        <v>0.0152879007555028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1605645</v>
+      </c>
+      <c r="H26">
+        <v>0.321129</v>
+      </c>
+      <c r="I26">
+        <v>0.2047824598076583</v>
+      </c>
+      <c r="J26">
+        <v>0.1465234507605208</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.154292</v>
+      </c>
+      <c r="N26">
+        <v>0.308584</v>
+      </c>
+      <c r="O26">
+        <v>0.05301574920841631</v>
+      </c>
+      <c r="P26">
+        <v>0.03597966239159632</v>
+      </c>
+      <c r="Q26">
+        <v>0.024773817834</v>
+      </c>
+      <c r="R26">
+        <v>0.099095271336</v>
+      </c>
+      <c r="S26">
+        <v>0.01085669553144541</v>
+      </c>
+      <c r="T26">
+        <v>0.005271864290815226</v>
       </c>
     </row>
   </sheetData>
